--- a/socialstyrelsen/statistik-covid19-inskrivna_2020-09-28.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_2020-09-28.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="274">
   <si>
     <t>Diabetes</t>
   </si>
@@ -1157,9 +1157,6 @@
   </si>
   <si>
     <t>vecka 38</t>
-  </si>
-  <si>
-    <t>vecka 40</t>
   </si>
 </sst>
 </file>
@@ -2349,6 +2346,69 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2364,78 +2424,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2487,19 +2484,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2609,7 +2606,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3070,7 +3066,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7943,7 +7938,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="197" t="s">
         <v>165</v>
       </c>
       <c r="C13" s="75" t="s">
@@ -7957,24 +7952,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="177"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="142" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="195" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="174" t="s">
+      <c r="E14" s="195" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="177"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="174"/>
-      <c r="E15" s="175"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="196"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="121" t="s">
@@ -7990,20 +7985,20 @@
       <c r="B17" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="183" t="s">
+      <c r="C17" s="202" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="183"/>
+      <c r="D17" s="202"/>
       <c r="E17" s="120"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="119" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="182"/>
+      <c r="D18" s="201"/>
       <c r="E18" s="120"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8220,16 +8215,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="199" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="180" t="s">
+      <c r="E39" s="200" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8237,45 +8232,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="179"/>
+      <c r="B40" s="191"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="181"/>
-      <c r="E40" s="181"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="179"/>
+      <c r="B41" s="191"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="181"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="179"/>
+      <c r="B42" s="191"/>
       <c r="C42" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="179"/>
+      <c r="B43" s="191"/>
       <c r="C43" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="181"/>
-      <c r="E43" s="181"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8305,22 +8300,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="181" t="s">
+      <c r="B46" s="185"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="181" t="s">
+      <c r="E46" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="181"/>
+      <c r="F46" s="186"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="185"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8334,16 +8329,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="186" t="s">
+      <c r="B49" s="190" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="188" t="s">
+      <c r="E49" s="192" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8351,30 +8346,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="179"/>
+      <c r="B50" s="191"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="187"/>
-      <c r="E50" s="187"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="185"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="179"/>
+      <c r="B51" s="191"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="187"/>
-      <c r="E51" s="187"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="185"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="179"/>
+      <c r="B52" s="191"/>
       <c r="C52" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D52" s="187"/>
-      <c r="E52" s="187"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="185"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8426,46 +8421,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="189" t="s">
+      <c r="B57" s="193" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="191" t="s">
+      <c r="D57" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="191" t="s">
+      <c r="E57" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="184"/>
+      <c r="F57" s="189"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="190"/>
+      <c r="B58" s="184"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="181"/>
-      <c r="E58" s="181"/>
-      <c r="F58" s="185"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="186"/>
+      <c r="F58" s="174"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="190"/>
+      <c r="B59" s="184"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="181"/>
-      <c r="E59" s="181"/>
-      <c r="F59" s="185"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="174"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="190"/>
+      <c r="B60" s="184"/>
       <c r="C60" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D60" s="181"/>
-      <c r="E60" s="181"/>
-      <c r="F60" s="185"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="174"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8481,22 +8476,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="190"/>
-      <c r="C62" s="187"/>
-      <c r="D62" s="181" t="s">
+      <c r="B62" s="184"/>
+      <c r="C62" s="185"/>
+      <c r="D62" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="181" t="s">
+      <c r="E62" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="185"/>
+      <c r="F62" s="174"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="190"/>
-      <c r="C63" s="187"/>
-      <c r="D63" s="181"/>
-      <c r="E63" s="181"/>
-      <c r="F63" s="185"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="185"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="186"/>
+      <c r="F63" s="174"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -8632,47 +8627,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="198" t="s">
+      <c r="B78" s="181" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="199"/>
-      <c r="D78" s="199"/>
-      <c r="E78" s="199"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
+      <c r="E78" s="182"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="196" t="s">
+      <c r="B79" s="179" t="s">
         <v>256</v>
       </c>
-      <c r="C79" s="196"/>
-      <c r="D79" s="196"/>
+      <c r="C79" s="179"/>
+      <c r="D79" s="179"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="195" t="s">
+      <c r="C80" s="178" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="195"/>
+      <c r="D80" s="178"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="197" t="s">
+      <c r="C81" s="180" t="s">
         <v>144</v>
       </c>
-      <c r="D81" s="197"/>
+      <c r="D81" s="180"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="194" t="s">
+      <c r="C82" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="194"/>
+      <c r="D82" s="177"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -8687,27 +8682,27 @@
       <c r="C85" s="74"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="202" t="s">
+      <c r="B86" s="188" t="s">
         <v>189</v>
       </c>
-      <c r="C86" s="202"/>
-      <c r="D86" s="202"/>
+      <c r="C86" s="188"/>
+      <c r="D86" s="188"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="192" t="s">
+      <c r="B87" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="200" t="s">
+      <c r="C87" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="D87" s="201" t="s">
+      <c r="D87" s="187" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="193"/>
-      <c r="C88" s="200"/>
-      <c r="D88" s="201"/>
+      <c r="B88" s="176"/>
+      <c r="C88" s="183"/>
+      <c r="D88" s="187"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
@@ -8946,6 +8941,26 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -8960,26 +8975,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -10641,126 +10636,126 @@
       <c r="AQ5" s="205"/>
       <c r="AR5" s="205"/>
       <c r="AS5" s="206"/>
-      <c r="AT5" s="222" t="s">
+      <c r="AT5" s="220" t="s">
         <v>197</v>
       </c>
-      <c r="AU5" s="223"/>
-      <c r="AV5" s="223"/>
-      <c r="AW5" s="223"/>
-      <c r="AX5" s="223"/>
-      <c r="AY5" s="223"/>
-      <c r="AZ5" s="223"/>
-      <c r="BA5" s="223"/>
-      <c r="BB5" s="223"/>
-      <c r="BC5" s="223"/>
-      <c r="BD5" s="223"/>
-      <c r="BE5" s="223"/>
-      <c r="BF5" s="223"/>
-      <c r="BG5" s="223"/>
-      <c r="BH5" s="223"/>
-      <c r="BI5" s="224"/>
+      <c r="AU5" s="221"/>
+      <c r="AV5" s="221"/>
+      <c r="AW5" s="221"/>
+      <c r="AX5" s="221"/>
+      <c r="AY5" s="221"/>
+      <c r="AZ5" s="221"/>
+      <c r="BA5" s="221"/>
+      <c r="BB5" s="221"/>
+      <c r="BC5" s="221"/>
+      <c r="BD5" s="221"/>
+      <c r="BE5" s="221"/>
+      <c r="BF5" s="221"/>
+      <c r="BG5" s="221"/>
+      <c r="BH5" s="221"/>
+      <c r="BI5" s="222"/>
     </row>
     <row r="6" spans="1:61" ht="13.5" customHeight="1">
       <c r="A6" s="218"/>
       <c r="B6" s="211"/>
       <c r="C6" s="210"/>
-      <c r="D6" s="220" t="s">
+      <c r="D6" s="223" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="221"/>
-      <c r="F6" s="220" t="s">
+      <c r="E6" s="224"/>
+      <c r="F6" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="220" t="s">
+      <c r="G6" s="224"/>
+      <c r="H6" s="223" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="221"/>
-      <c r="J6" s="220" t="s">
+      <c r="I6" s="224"/>
+      <c r="J6" s="223" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="221"/>
-      <c r="L6" s="220" t="s">
+      <c r="K6" s="224"/>
+      <c r="L6" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="221"/>
-      <c r="N6" s="220" t="s">
+      <c r="M6" s="224"/>
+      <c r="N6" s="223" t="s">
         <v>171</v>
       </c>
-      <c r="O6" s="221"/>
-      <c r="P6" s="220" t="s">
+      <c r="O6" s="224"/>
+      <c r="P6" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="220" t="s">
+      <c r="Q6" s="224"/>
+      <c r="R6" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="S6" s="221"/>
-      <c r="T6" s="220" t="s">
+      <c r="S6" s="224"/>
+      <c r="T6" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="U6" s="221"/>
-      <c r="V6" s="220" t="s">
+      <c r="U6" s="224"/>
+      <c r="V6" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="W6" s="221"/>
-      <c r="X6" s="220" t="s">
+      <c r="W6" s="224"/>
+      <c r="X6" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="Y6" s="221"/>
-      <c r="Z6" s="220" t="s">
+      <c r="Y6" s="224"/>
+      <c r="Z6" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="AA6" s="221"/>
-      <c r="AB6" s="220" t="s">
+      <c r="AA6" s="224"/>
+      <c r="AB6" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="AC6" s="221"/>
-      <c r="AD6" s="220" t="s">
+      <c r="AC6" s="224"/>
+      <c r="AD6" s="223" t="s">
         <v>225</v>
       </c>
-      <c r="AE6" s="221"/>
-      <c r="AF6" s="220" t="s">
+      <c r="AE6" s="224"/>
+      <c r="AF6" s="223" t="s">
         <v>233</v>
       </c>
-      <c r="AG6" s="221"/>
-      <c r="AH6" s="220" t="s">
+      <c r="AG6" s="224"/>
+      <c r="AH6" s="223" t="s">
         <v>237</v>
       </c>
-      <c r="AI6" s="221"/>
-      <c r="AJ6" s="220" t="s">
+      <c r="AI6" s="224"/>
+      <c r="AJ6" s="223" t="s">
         <v>246</v>
       </c>
-      <c r="AK6" s="221"/>
-      <c r="AL6" s="220" t="s">
+      <c r="AK6" s="224"/>
+      <c r="AL6" s="223" t="s">
         <v>247</v>
       </c>
-      <c r="AM6" s="221"/>
-      <c r="AN6" s="220" t="s">
+      <c r="AM6" s="224"/>
+      <c r="AN6" s="223" t="s">
         <v>248</v>
       </c>
-      <c r="AO6" s="221"/>
-      <c r="AP6" s="220" t="s">
+      <c r="AO6" s="224"/>
+      <c r="AP6" s="223" t="s">
         <v>249</v>
       </c>
-      <c r="AQ6" s="221"/>
-      <c r="AR6" s="220" t="s">
+      <c r="AQ6" s="224"/>
+      <c r="AR6" s="223" t="s">
         <v>250</v>
       </c>
-      <c r="AS6" s="221"/>
-      <c r="AT6" s="220" t="s">
+      <c r="AS6" s="224"/>
+      <c r="AT6" s="223" t="s">
         <v>251</v>
       </c>
-      <c r="AU6" s="221"/>
-      <c r="AV6" s="220" t="s">
+      <c r="AU6" s="224"/>
+      <c r="AV6" s="223" t="s">
         <v>252</v>
       </c>
-      <c r="AW6" s="221"/>
-      <c r="AX6" s="220" t="s">
+      <c r="AW6" s="224"/>
+      <c r="AX6" s="223" t="s">
         <v>253</v>
       </c>
-      <c r="AY6" s="221"/>
-      <c r="AZ6" s="220" t="s">
+      <c r="AY6" s="224"/>
+      <c r="AZ6" s="223" t="s">
         <v>254</v>
       </c>
       <c r="BA6" s="228"/>
@@ -15063,6 +15058,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D5:AS5"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AT5:BI5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
@@ -15079,24 +15092,6 @@
     <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AJ6:AK6"/>
     <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D5:AS5"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15195,147 +15190,147 @@
       <c r="AO5" s="205"/>
       <c r="AP5" s="205"/>
       <c r="AQ5" s="206"/>
-      <c r="AR5" s="222" t="s">
+      <c r="AR5" s="220" t="s">
         <v>206</v>
       </c>
-      <c r="AS5" s="223"/>
-      <c r="AT5" s="223"/>
-      <c r="AU5" s="223"/>
-      <c r="AV5" s="223"/>
-      <c r="AW5" s="223"/>
-      <c r="AX5" s="223"/>
-      <c r="AY5" s="223"/>
-      <c r="AZ5" s="223"/>
-      <c r="BA5" s="223"/>
-      <c r="BB5" s="223"/>
-      <c r="BC5" s="223"/>
-      <c r="BD5" s="223"/>
-      <c r="BE5" s="223"/>
-      <c r="BF5" s="223"/>
-      <c r="BG5" s="223"/>
-      <c r="BH5" s="223"/>
-      <c r="BI5" s="224"/>
+      <c r="AS5" s="221"/>
+      <c r="AT5" s="221"/>
+      <c r="AU5" s="221"/>
+      <c r="AV5" s="221"/>
+      <c r="AW5" s="221"/>
+      <c r="AX5" s="221"/>
+      <c r="AY5" s="221"/>
+      <c r="AZ5" s="221"/>
+      <c r="BA5" s="221"/>
+      <c r="BB5" s="221"/>
+      <c r="BC5" s="221"/>
+      <c r="BD5" s="221"/>
+      <c r="BE5" s="221"/>
+      <c r="BF5" s="221"/>
+      <c r="BG5" s="221"/>
+      <c r="BH5" s="221"/>
+      <c r="BI5" s="222"/>
     </row>
     <row r="6" spans="1:61" ht="13.5" customHeight="1">
       <c r="A6" s="218"/>
       <c r="B6" s="211"/>
       <c r="C6" s="210"/>
-      <c r="D6" s="220" t="s">
+      <c r="D6" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="221"/>
-      <c r="F6" s="220" t="s">
+      <c r="E6" s="224"/>
+      <c r="F6" s="223" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="220" t="s">
+      <c r="G6" s="224"/>
+      <c r="H6" s="223" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="221"/>
-      <c r="J6" s="220" t="s">
+      <c r="I6" s="224"/>
+      <c r="J6" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="221"/>
-      <c r="L6" s="220" t="s">
+      <c r="K6" s="224"/>
+      <c r="L6" s="223" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="221"/>
-      <c r="N6" s="220" t="s">
+      <c r="M6" s="224"/>
+      <c r="N6" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="O6" s="221"/>
-      <c r="P6" s="220" t="s">
+      <c r="O6" s="224"/>
+      <c r="P6" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="220" t="s">
+      <c r="Q6" s="224"/>
+      <c r="R6" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="S6" s="221"/>
-      <c r="T6" s="220" t="s">
+      <c r="S6" s="224"/>
+      <c r="T6" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="U6" s="221"/>
-      <c r="V6" s="220" t="s">
+      <c r="U6" s="224"/>
+      <c r="V6" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="W6" s="221"/>
-      <c r="X6" s="220" t="s">
+      <c r="W6" s="224"/>
+      <c r="X6" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="Y6" s="221"/>
-      <c r="Z6" s="220" t="s">
+      <c r="Y6" s="224"/>
+      <c r="Z6" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="AA6" s="221"/>
-      <c r="AB6" s="220" t="s">
+      <c r="AA6" s="224"/>
+      <c r="AB6" s="223" t="s">
         <v>225</v>
       </c>
-      <c r="AC6" s="221"/>
+      <c r="AC6" s="224"/>
       <c r="AD6" s="229" t="s">
         <v>233</v>
       </c>
-      <c r="AE6" s="221"/>
+      <c r="AE6" s="224"/>
       <c r="AF6" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="AG6" s="221"/>
+      <c r="AG6" s="224"/>
       <c r="AH6" s="229" t="s">
         <v>246</v>
       </c>
-      <c r="AI6" s="221"/>
+      <c r="AI6" s="224"/>
       <c r="AJ6" s="229" t="s">
         <v>247</v>
       </c>
-      <c r="AK6" s="221"/>
+      <c r="AK6" s="224"/>
       <c r="AL6" s="229" t="s">
         <v>248</v>
       </c>
-      <c r="AM6" s="221"/>
+      <c r="AM6" s="224"/>
       <c r="AN6" s="229" t="s">
         <v>249</v>
       </c>
-      <c r="AO6" s="221"/>
+      <c r="AO6" s="224"/>
       <c r="AP6" s="229" t="s">
         <v>250</v>
       </c>
-      <c r="AQ6" s="221"/>
+      <c r="AQ6" s="224"/>
       <c r="AR6" s="229" t="s">
         <v>251</v>
       </c>
-      <c r="AS6" s="221"/>
+      <c r="AS6" s="224"/>
       <c r="AT6" s="229" t="s">
         <v>252</v>
       </c>
-      <c r="AU6" s="221"/>
+      <c r="AU6" s="224"/>
       <c r="AV6" s="229" t="s">
         <v>253</v>
       </c>
-      <c r="AW6" s="221"/>
+      <c r="AW6" s="224"/>
       <c r="AX6" s="229" t="s">
         <v>254</v>
       </c>
-      <c r="AY6" s="221"/>
+      <c r="AY6" s="224"/>
       <c r="AZ6" s="229" t="s">
         <v>257</v>
       </c>
-      <c r="BA6" s="221"/>
+      <c r="BA6" s="224"/>
       <c r="BB6" s="229" t="s">
         <v>259</v>
       </c>
-      <c r="BC6" s="221"/>
+      <c r="BC6" s="224"/>
       <c r="BD6" s="229" t="s">
         <v>260</v>
       </c>
-      <c r="BE6" s="221"/>
+      <c r="BE6" s="224"/>
       <c r="BF6" s="229" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG6" s="224"/>
+      <c r="BH6" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="BG6" s="221"/>
-      <c r="BH6" s="229" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI6" s="221"/>
+      <c r="BI6" s="224"/>
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="219"/>
@@ -19596,11 +19591,17 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="AR5:BI5"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="D5:AQ5"/>
     <mergeCell ref="R6:S6"/>
@@ -19614,21 +19615,15 @@
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="AR5:BI5"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
     <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="AX6:AY6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19638,15 +19633,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -19979,6 +19965,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -20018,14 +20013,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20044,16 +20031,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
